--- a/wales_covid_data.xlsx
+++ b/wales_covid_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -471,7 +471,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +517,14 @@
       <c r="O1" s="1">
         <v>869</v>
       </c>
+      <c r="P1" s="1">
+        <v>956</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -564,8 +570,14 @@
       <c r="O2" s="1">
         <v>133</v>
       </c>
+      <c r="P2" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>189</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -611,8 +623,14 @@
       <c r="O3" s="1">
         <v>613</v>
       </c>
+      <c r="P3" s="1">
+        <v>729</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>815</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -658,8 +676,14 @@
       <c r="O4" s="1">
         <v>329</v>
       </c>
+      <c r="P4" s="1">
+        <v>387</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>479</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -705,8 +729,14 @@
       <c r="O5" s="1">
         <v>144</v>
       </c>
+      <c r="P5" s="1">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>189</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -752,8 +782,14 @@
       <c r="O6" s="1">
         <v>41</v>
       </c>
+      <c r="P6" s="1">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -798,6 +834,12 @@
       </c>
       <c r="O7" s="1">
         <v>273</v>
+      </c>
+      <c r="P7" s="1">
+        <v>312</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/wales_covid_data.xlsx
+++ b/wales_covid_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="5960" yWindow="560" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,8 +95,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -116,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -124,6 +130,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -131,6 +140,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S7" sqref="A1:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -471,7 +483,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +535,14 @@
       <c r="Q1" s="1">
         <v>1020</v>
       </c>
+      <c r="R1" s="1">
+        <v>1103</v>
+      </c>
+      <c r="S1" s="1">
+        <v>1160</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -576,8 +594,14 @@
       <c r="Q2" s="1">
         <v>189</v>
       </c>
+      <c r="R2" s="1">
+        <v>226</v>
+      </c>
+      <c r="S2" s="1">
+        <v>244</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -629,8 +653,14 @@
       <c r="Q3" s="1">
         <v>815</v>
       </c>
+      <c r="R3" s="1">
+        <v>888</v>
+      </c>
+      <c r="S3" s="1">
+        <v>943</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -682,8 +712,14 @@
       <c r="Q4" s="1">
         <v>479</v>
       </c>
+      <c r="R4" s="1">
+        <v>534</v>
+      </c>
+      <c r="S4" s="1">
+        <v>578</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -735,8 +771,14 @@
       <c r="Q5" s="1">
         <v>189</v>
       </c>
+      <c r="R5" s="1">
+        <v>213</v>
+      </c>
+      <c r="S5" s="1">
+        <v>244</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -788,8 +830,14 @@
       <c r="Q6" s="1">
         <v>48</v>
       </c>
+      <c r="R6" s="1">
+        <v>55</v>
+      </c>
+      <c r="S6" s="1">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -840,6 +888,12 @@
       </c>
       <c r="Q7" s="1">
         <v>378</v>
+      </c>
+      <c r="R7" s="1">
+        <v>412</v>
+      </c>
+      <c r="S7" s="1">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/wales_covid_data.xlsx
+++ b/wales_covid_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="560" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,8 +94,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -117,12 +126,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -133,6 +214,41 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -143,6 +259,41 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S7" sqref="A1:S7"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="A1:AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -483,417 +634,858 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>92</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>145</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>185</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>220</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>248</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>309</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>358</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>432</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>482</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2">
         <v>514</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>565</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>681</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2">
         <v>766</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2">
         <v>869</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="2">
         <v>956</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>1020</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="2">
         <v>1103</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="2">
         <v>1160</v>
       </c>
+      <c r="T1" s="3">
+        <v>1211</v>
+      </c>
+      <c r="U1" s="3">
+        <v>1221</v>
+      </c>
+      <c r="V1" s="3">
+        <v>1311</v>
+      </c>
+      <c r="W1" s="3">
+        <v>1378</v>
+      </c>
+      <c r="X1" s="3">
+        <v>1453</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>1550</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>1570</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>1609</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>1639</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>1688</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>1733</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>1774</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>1835</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>1861</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>1885</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>1937</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>1959</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>1983</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>2043</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>19</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>22</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>25</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>45</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>64</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>69</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>82</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>91</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>117</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>133</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>178</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>189</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>226</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
         <v>244</v>
       </c>
+      <c r="T2" s="3">
+        <v>277</v>
+      </c>
+      <c r="U2" s="3">
+        <v>279</v>
+      </c>
+      <c r="V2" s="3">
+        <v>330</v>
+      </c>
+      <c r="W2" s="3">
+        <v>370</v>
+      </c>
+      <c r="X2" s="3">
+        <v>418</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>463</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>477</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>544</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>594</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>634</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>679</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>741</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>782</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>839</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>913</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>941</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>997</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1062</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>1079</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>1124</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>1168</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
+    <row r="3" spans="1:40">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>29</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>51</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>64</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>84</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>96</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>125</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>156</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>194</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>256</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>282</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>344</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>460</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>528</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>613</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>729</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>815</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>888</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="2">
         <v>943</v>
       </c>
+      <c r="T3" s="3">
+        <v>1013</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1013</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1142</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1209</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1306</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1380</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1420</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1471</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1544</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1609</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1671</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1727</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1782</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1828</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1886</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1934</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1971</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>2064</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>2103</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>2139</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>21</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>23</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>42</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>54</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>68</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>90</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>124</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>158</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>210</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>242</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>329</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <v>387</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>479</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>534</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>578</v>
       </c>
+      <c r="T4" s="3">
+        <v>618</v>
+      </c>
+      <c r="U4" s="3">
+        <v>618</v>
+      </c>
+      <c r="V4" s="3">
+        <v>728</v>
+      </c>
+      <c r="W4" s="3">
+        <v>797</v>
+      </c>
+      <c r="X4" s="3">
+        <v>859</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>891</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>955</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>988</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1046</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1096</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1146</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1235</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1286</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1347</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>1376</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1429</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1462</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1534</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>1585</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>1611</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>1663</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>27</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>38</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>45</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>52</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>54</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>75</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>87</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>107</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>134</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>144</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>170</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>189</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>213</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
         <v>244</v>
       </c>
+      <c r="T5" s="3">
+        <v>283</v>
+      </c>
+      <c r="U5" s="3">
+        <v>286</v>
+      </c>
+      <c r="V5" s="3">
+        <v>314</v>
+      </c>
+      <c r="W5" s="3">
+        <v>339</v>
+      </c>
+      <c r="X5" s="3">
+        <v>362</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>382</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>415</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>443</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>456</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>475</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>492</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>504</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>533</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>554</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>571</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>608</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>630</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>652</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>661</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>672</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>687</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>11</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>16</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>18</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>19</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>20</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>22</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>29</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>34</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>41</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>46</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>48</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <v>55</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
         <v>58</v>
       </c>
+      <c r="T6" s="3">
+        <v>62</v>
+      </c>
+      <c r="U6" s="3">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3">
+        <v>69</v>
+      </c>
+      <c r="W6" s="3">
+        <v>71</v>
+      </c>
+      <c r="X6" s="3">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>89</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>94</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>96</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>109</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>118</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>121</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>123</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>128</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>141</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>145</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>147</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>152</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>154</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>157</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>162</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
+    <row r="7" spans="1:40">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>34</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>41</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>47</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>47</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>49</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>70</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>75</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>93</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>104</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>125</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>157</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>213</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>248</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>273</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <v>312</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>378</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="2">
         <v>412</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="2">
         <v>490</v>
+      </c>
+      <c r="T7" s="3">
+        <v>534</v>
+      </c>
+      <c r="U7" s="3">
+        <v>534</v>
+      </c>
+      <c r="V7" s="3">
+        <v>608</v>
+      </c>
+      <c r="W7" s="3">
+        <v>674</v>
+      </c>
+      <c r="X7" s="3">
+        <v>730</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>806</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>833</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>896</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>935</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>971</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1022</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1081</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1133</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>1184</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>1235</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1275</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1311</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>1366</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>1401</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1439</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>1488</v>
       </c>
     </row>
   </sheetData>

--- a/wales_covid_data.xlsx
+++ b/wales_covid_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -203,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="213">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -249,6 +371,67 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -294,6 +477,67 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:BX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="A1:AN7"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BX7" sqref="A1:BX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -634,7 +878,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:76">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,8 +999,116 @@
       <c r="AN1" s="3">
         <v>2043</v>
       </c>
+      <c r="AO1" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>2081</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>2109</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>2130</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>2143</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>2174</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>2208</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>2226</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>2238</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>2246</v>
+      </c>
+      <c r="AY1" s="3">
+        <v>2271</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>2304</v>
+      </c>
+      <c r="BA1" s="3">
+        <v>2319</v>
+      </c>
+      <c r="BB1" s="3">
+        <v>2340</v>
+      </c>
+      <c r="BC1" s="3">
+        <v>2342</v>
+      </c>
+      <c r="BD1" s="3">
+        <v>2353</v>
+      </c>
+      <c r="BE1" s="3">
+        <v>2359</v>
+      </c>
+      <c r="BF1" s="3">
+        <v>2372</v>
+      </c>
+      <c r="BG1" s="3">
+        <v>2381</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>2388</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>2401</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>2412</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>2452</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>2462</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>2478</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>2491</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>2498</v>
+      </c>
+      <c r="BP1" s="3">
+        <v>2513</v>
+      </c>
+      <c r="BQ1" s="3">
+        <v>2522</v>
+      </c>
+      <c r="BR1" s="3">
+        <v>2527</v>
+      </c>
+      <c r="BS1" s="3">
+        <v>2532</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>2540</v>
+      </c>
+      <c r="BU1" s="3">
+        <v>2552</v>
+      </c>
+      <c r="BV1" s="3">
+        <v>2555</v>
+      </c>
+      <c r="BW1" s="3">
+        <v>2560</v>
+      </c>
+      <c r="BX1" s="3">
+        <v>2567</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:76">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -877,8 +1229,116 @@
       <c r="AN2" s="3">
         <v>1168</v>
       </c>
+      <c r="AO2" s="3">
+        <v>1196</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>1248</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1278</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>1320</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>1371</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>1417</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>1468</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>1491</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>1516</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>1607</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>1638</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>1711</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>1755</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>1777</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>1847</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>1895</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>1915</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>2013</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>2082</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>2123</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>2190</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>2238</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>2282</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>2327</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>2399</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>2451</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>2510</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>2577</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>2619</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>2649</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>2705</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>2740</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>2770</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>2787</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>2823</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>2876</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:76">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -999,8 +1459,116 @@
       <c r="AN3" s="3">
         <v>2139</v>
       </c>
+      <c r="AO3" s="3">
+        <v>2160</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>2186</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>2218</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>2246</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>2280</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>2311</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>2331</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>2344</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>2355</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>2366</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>2376</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>2402</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>2417</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>2426</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>2434</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>2452</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>2466</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>2477</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>2494</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>2511</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>2518</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>2531</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>2547</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>2566</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>2590</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>2603</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>2615</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>2639</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>2654</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>2669</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>2681</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>2699</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>2719</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>2730</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>2740</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>2748</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:76">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1689,116 @@
       <c r="AN4" s="3">
         <v>1663</v>
       </c>
+      <c r="AO4" s="3">
+        <v>1687</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>1735</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>1770</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>1807</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>1828</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1865</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>1891</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>1912</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>1931</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>1947</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>1978</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>2038</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>2070</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>2085</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>2118</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>2144</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>2171</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>2196</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>2210</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>2246</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>2265</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>2312</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>2352</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>2370</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>2404</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>2418</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>2444</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>2463</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>2474</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>2495</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>2517</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>2533</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>2555</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>2564</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>2575</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:76">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1243,8 +1919,116 @@
       <c r="AN5" s="3">
         <v>687</v>
       </c>
+      <c r="AO5" s="3">
+        <v>697</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>709</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>720</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>731</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>757</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>766</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>770</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>771</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>778</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>794</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>804</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>833</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>847</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>852</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>863</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>865</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>902</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>922</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>940</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>952</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>964</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>970</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>978</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>986</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>1019</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>1031</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>1039</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>1043</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>1044</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>1044</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>1044</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>1044</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>1046</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>1049</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>1053</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>1055</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:76">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1365,8 +2149,116 @@
       <c r="AN6" s="3">
         <v>162</v>
       </c>
+      <c r="AO6" s="3">
+        <v>166</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>169</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>171</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>179</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>182</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>188</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>194</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>196</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>197</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>198</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>199</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>204</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>209</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>216</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>226</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>227</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>227</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>232</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>241</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>244</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>246</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>249</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>251</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>253</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>255</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>266</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>270</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>272</v>
+      </c>
+      <c r="BQ6" s="3">
+        <v>276</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>281</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>283</v>
+      </c>
+      <c r="BT6" s="3">
+        <v>284</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>285</v>
+      </c>
+      <c r="BV6" s="3">
+        <v>285</v>
+      </c>
+      <c r="BW6" s="3">
+        <v>286</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>286</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:76">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1486,6 +2378,114 @@
       </c>
       <c r="AN7" s="3">
         <v>1488</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>1502</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>1518</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>1538</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>1571</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>1595</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>1626</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>1630</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>1646</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>1654</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>1661</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>1668</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>1679</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>1691</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>1702</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>1717</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>1731</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>1750</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>1756</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>1767</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>1774</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>1800</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>1808</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>1812</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>1825</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>1837</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>1841</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>1844</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>1847</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>1855</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>1861</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>1866</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>1867</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>1868</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>1871</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>1873</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>1873</v>
       </c>
     </row>
   </sheetData>

--- a/wales_covid_data.xlsx
+++ b/wales_covid_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="213">
+  <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -325,7 +337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="213">
+  <cellStyles count="225">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -432,6 +444,12 @@
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -538,6 +556,12 @@
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -867,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX7"/>
+  <dimension ref="A1:CA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="BX7" sqref="A1:BX7"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="CC6" sqref="CC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -878,7 +902,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:79">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,8 +1131,17 @@
       <c r="BX1" s="3">
         <v>2567</v>
       </c>
+      <c r="BY1" s="3">
+        <v>2570</v>
+      </c>
+      <c r="BZ1" s="3">
+        <v>2572</v>
+      </c>
+      <c r="CA1" s="3">
+        <v>2572</v>
+      </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:79">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1337,8 +1370,17 @@
       <c r="BX2" s="3">
         <v>2876</v>
       </c>
+      <c r="BY2" s="3">
+        <v>2888</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>2931</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>2952</v>
+      </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:79">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1567,8 +1609,17 @@
       <c r="BX3" s="3">
         <v>2748</v>
       </c>
+      <c r="BY3" s="3">
+        <v>2759</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>2772</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>2783</v>
+      </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:79">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1797,8 +1848,17 @@
       <c r="BX4" s="3">
         <v>2575</v>
       </c>
+      <c r="BY4" s="3">
+        <v>2581</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>2592</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>2596</v>
+      </c>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:79">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2027,8 +2087,17 @@
       <c r="BX5" s="3">
         <v>1055</v>
       </c>
+      <c r="BY5" s="3">
+        <v>1055</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>1056</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>1058</v>
+      </c>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:79">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2257,8 +2326,17 @@
       <c r="BX6" s="3">
         <v>286</v>
       </c>
+      <c r="BY6" s="3">
+        <v>287</v>
+      </c>
+      <c r="BZ6" s="3">
+        <v>287</v>
+      </c>
+      <c r="CA6" s="3">
+        <v>290</v>
+      </c>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:79">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2486,6 +2564,15 @@
       </c>
       <c r="BX7" s="3">
         <v>1873</v>
+      </c>
+      <c r="BY7" s="3">
+        <v>1874</v>
+      </c>
+      <c r="BZ7" s="3">
+        <v>1879</v>
+      </c>
+      <c r="CA7" s="3">
+        <v>1880</v>
       </c>
     </row>
   </sheetData>
